--- a/templates/template2.xlsx
+++ b/templates/template2.xlsx
@@ -1,44 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myCode\github\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myCode\github\inventory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB621EE8-884D-43F9-B608-EDA5036F1DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CBD01B6-1ECE-47DD-A6B2-C0A1DF59C468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="31" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>CEMENTING INVENTORY REPORT</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>(blank)</t>
   </si>
   <si>
     <t>Sum of Qty</t>
   </si>
   <si>
     <t>Column Labels</t>
-  </si>
-  <si>
-    <t>Items</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -68,7 +65,7 @@
     <t>Supervisor</t>
   </si>
   <si>
-    <t>(blank)</t>
+    <t>Row Labels</t>
   </si>
 </sst>
 </file>
@@ -88,7 +85,7 @@
       <sz val="28"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,7 +93,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,7 +101,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -134,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -145,40 +142,241 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <alignment textRotation="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0"/>
+  <dxfs count="224">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -422,12 +620,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment wrapText="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -510,39 +702,76 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39991454817346722"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment textRotation="90"/>
@@ -551,16 +780,600 @@
       <alignment textRotation="90"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39991454817346722"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39991454817346722"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39991454817346722"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79992065187536243"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <fill>
@@ -642,22 +1455,15 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Dipu" refreshedDate="44675.620032060186" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dipu" refreshedDate="44676.067265046295" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="15" xr:uid="{CC496AB7-0EC3-4B9C-B790-E57656533130}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Data"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="9">
+      <sharedItems containsNonDate="0" containsBlank="1" count="2">
         <m/>
-        <s v="2021-11-16" u="1"/>
         <s v="2022-04-23" u="1"/>
-        <s v="2021-11-17" u="1"/>
-        <s v="2022-04-24" u="1"/>
-        <s v="2021-11-18" u="1"/>
-        <s v="2021-11-13" u="1"/>
-        <s v="2021-11-14" u="1"/>
-        <s v="2022-04-22" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
@@ -667,32 +1473,15 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Code" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="7">
+      <sharedItems containsNonDate="0" containsBlank="1" count="2">
         <m/>
-        <s v="PC-F45L" u="1"/>
-        <s v="PC-H21L" u="1"/>
         <s v="PC-DyeF" u="1"/>
-        <s v="PC-A95L" u="1"/>
-        <s v="PC-A97L" u="1"/>
-        <s v="PC-J62L" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Batch" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="14">
+      <sharedItems containsNonDate="0" containsBlank="1" count="2">
         <m/>
-        <s v="HX-191227" u="1"/>
-        <s v="New batch" u="1"/>
-        <s v="INV568-03" u="1"/>
-        <s v="HX-181108" u="1"/>
-        <s v="HX-20181101" u="1"/>
-        <s v="HX-191232" u="1"/>
-        <s v="HX-191229" u="1"/>
         <s v="INV568-02" u="1"/>
-        <s v="HX-190807D01" u="1"/>
-        <s v="HX-191231" u="1"/>
-        <s v="HX-191228" u="1"/>
-        <s v="HX-181109" u="1"/>
-        <s v="HX-191230" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
@@ -717,7 +1506,147 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -732,58 +1661,34 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Inv" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" rowGrandTotals="0" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Items">
-  <location ref="A7:C10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F595AF18-5F6E-4488-B606-07C1EC3DDE7F}" name="PivotTable1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" rowGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A11:C14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0" sumSubtotal="1">
-      <items count="10">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
         <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="1"/>
-        <item m="1" x="3"/>
-        <item m="1" x="5"/>
-        <item m="1" x="8"/>
-        <item m="1" x="2"/>
-        <item m="1" x="4"/>
-        <item t="sum"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField name="Category" axis="axisPage" showAll="0">
+    <pivotField axis="axisPage" showAll="0">
       <items count="3">
+        <item m="1" x="1"/>
         <item x="0"/>
-        <item m="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="3">
+        <item m="1" x="1"/>
         <item x="0"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+      <items count="3">
+        <item m="1" x="1"/>
         <item x="0"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="10"/>
-        <item m="1" x="13"/>
-        <item m="1" x="6"/>
-        <item m="1" x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="2"/>
-        <item m="1" x="8"/>
-        <item m="1" x="3"/>
-        <item m="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -798,10 +1703,10 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i r="1">
-      <x/>
+      <x v="1"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -809,203 +1714,76 @@
   </colFields>
   <colItems count="2">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" item="0" hier="0"/>
+    <pageField fld="1" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Qty" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="33">
-    <format dxfId="82">
+  <formats count="10">
+    <format dxfId="31">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="17">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="78">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="77">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="76">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="75">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="74">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="73">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="72">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="71">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="70">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="69">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="68">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="8">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
+          <reference field="2" count="1">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="66">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="8">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
+        <references count="2">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="0" count="8">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
+          <reference field="0" count="1">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
     <format dxfId="10">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
     </ext>
@@ -1271,543 +2049,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:LY43"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="31.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="12.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:337" ht="36" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="36" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:337">
-      <c r="A2" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:337">
-      <c r="A3" s="10"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="5" spans="1:337">
-      <c r="A5" s="2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:337" hidden="1">
-      <c r="A7" s="2" t="s">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" hidden="1">
+      <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:337" s="11" customFormat="1">
-      <c r="A8" s="3" t="s">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9" t="s">
+        <v>1</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="12"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="12"/>
-      <c r="BG8" s="12"/>
-      <c r="BH8" s="12"/>
-      <c r="BI8" s="12"/>
-      <c r="BJ8" s="12"/>
-      <c r="BK8" s="12"/>
-      <c r="BL8" s="12"/>
-      <c r="BM8" s="12"/>
-      <c r="BN8" s="12"/>
-      <c r="BO8" s="12"/>
-      <c r="BP8" s="12"/>
-      <c r="BQ8" s="12"/>
-      <c r="BR8" s="12"/>
-      <c r="BS8" s="12"/>
-      <c r="BT8" s="12"/>
-      <c r="BU8" s="12"/>
-      <c r="BV8" s="12"/>
-      <c r="BW8" s="12"/>
-      <c r="BX8" s="12"/>
-      <c r="BY8" s="12"/>
-      <c r="BZ8" s="12"/>
-      <c r="CA8" s="12"/>
-      <c r="CB8" s="12"/>
-      <c r="CC8" s="12"/>
-      <c r="CD8" s="12"/>
-      <c r="CE8" s="12"/>
-      <c r="CF8" s="12"/>
-      <c r="CG8" s="12"/>
-      <c r="CH8" s="12"/>
-      <c r="CI8" s="12"/>
-      <c r="CJ8" s="12"/>
-      <c r="CK8" s="12"/>
-      <c r="CL8" s="12"/>
-      <c r="CM8" s="12"/>
-      <c r="CN8" s="12"/>
-      <c r="CO8" s="12"/>
-      <c r="CP8" s="12"/>
-      <c r="CQ8" s="12"/>
-      <c r="CR8" s="12"/>
-      <c r="CS8" s="12"/>
-      <c r="CT8" s="12"/>
-      <c r="CU8" s="12"/>
-      <c r="CV8" s="12"/>
-      <c r="CW8" s="12"/>
-      <c r="CX8" s="12"/>
-      <c r="CY8" s="12"/>
-      <c r="CZ8" s="12"/>
-      <c r="DA8" s="12"/>
-      <c r="DB8" s="12"/>
-      <c r="DC8" s="12"/>
-      <c r="DD8" s="12"/>
-      <c r="DE8" s="12"/>
-      <c r="DF8" s="12"/>
-      <c r="DG8" s="12"/>
-      <c r="DH8" s="12"/>
-      <c r="DI8" s="12"/>
-      <c r="DJ8" s="12"/>
-      <c r="DK8" s="12"/>
-      <c r="DL8" s="12"/>
-      <c r="DM8" s="12"/>
-      <c r="DN8" s="12"/>
-      <c r="DO8" s="12"/>
-      <c r="DP8" s="12"/>
-      <c r="DQ8" s="12"/>
-      <c r="DR8" s="12"/>
-      <c r="DS8" s="12"/>
-      <c r="DT8" s="12"/>
-      <c r="DU8" s="12"/>
-      <c r="DV8" s="12"/>
-      <c r="DW8" s="12"/>
-      <c r="DX8" s="12"/>
-      <c r="DY8" s="12"/>
-      <c r="DZ8" s="12"/>
-      <c r="EA8" s="12"/>
-      <c r="EB8" s="12"/>
-      <c r="EC8" s="12"/>
-      <c r="ED8" s="12"/>
-      <c r="EE8" s="12"/>
-      <c r="EF8" s="12"/>
-      <c r="EG8" s="12"/>
-      <c r="EH8" s="12"/>
-      <c r="EI8" s="12"/>
-      <c r="EJ8" s="12"/>
-      <c r="EK8" s="12"/>
-      <c r="EL8" s="12"/>
-      <c r="EM8" s="12"/>
-      <c r="EN8" s="12"/>
-      <c r="EO8" s="12"/>
-      <c r="EP8" s="12"/>
-      <c r="EQ8" s="12"/>
-      <c r="ER8" s="12"/>
-      <c r="ES8" s="12"/>
-      <c r="ET8" s="12"/>
-      <c r="EU8" s="12"/>
-      <c r="EV8" s="12"/>
-      <c r="EW8" s="12"/>
-      <c r="EX8" s="12"/>
-      <c r="EY8" s="12"/>
-      <c r="EZ8" s="12"/>
-      <c r="FA8" s="12"/>
-      <c r="FB8" s="12"/>
-      <c r="FC8" s="12"/>
-      <c r="FD8" s="12"/>
-      <c r="FE8" s="12"/>
-      <c r="FF8" s="12"/>
-      <c r="FG8" s="12"/>
-      <c r="FH8" s="12"/>
-      <c r="FI8" s="12"/>
-      <c r="FJ8" s="12"/>
-      <c r="FK8" s="12"/>
-      <c r="FL8" s="12"/>
-      <c r="FM8" s="12"/>
-      <c r="FN8" s="12"/>
-      <c r="FO8" s="12"/>
-      <c r="FP8" s="12"/>
-      <c r="FQ8" s="12"/>
-      <c r="FR8" s="12"/>
-      <c r="FS8" s="12"/>
-      <c r="FT8" s="12"/>
-      <c r="FU8" s="12"/>
-      <c r="FV8" s="12"/>
-      <c r="FW8" s="12"/>
-      <c r="FX8" s="12"/>
-      <c r="FY8" s="12"/>
-      <c r="FZ8" s="12"/>
-      <c r="GA8" s="12"/>
-      <c r="GB8" s="12"/>
-      <c r="GC8" s="12"/>
-      <c r="GD8" s="12"/>
-      <c r="GE8" s="12"/>
-      <c r="GF8" s="12"/>
-      <c r="GG8" s="12"/>
-      <c r="GH8" s="12"/>
-      <c r="GI8" s="12"/>
-      <c r="GJ8" s="12"/>
-      <c r="GK8" s="12"/>
-      <c r="GL8" s="12"/>
-      <c r="GM8" s="12"/>
-      <c r="GN8" s="12"/>
-      <c r="GO8" s="12"/>
-      <c r="GP8" s="12"/>
-      <c r="GQ8" s="12"/>
-      <c r="GR8" s="12"/>
-      <c r="GS8" s="12"/>
-      <c r="GT8" s="12"/>
-      <c r="GU8" s="12"/>
-      <c r="GV8" s="12"/>
-      <c r="GW8" s="12"/>
-      <c r="GX8" s="12"/>
-      <c r="GY8" s="12"/>
-      <c r="GZ8" s="12"/>
-      <c r="HA8" s="12"/>
-      <c r="HB8" s="12"/>
-      <c r="HC8" s="12"/>
-      <c r="HD8" s="12"/>
-      <c r="HE8" s="12"/>
-      <c r="HF8" s="12"/>
-      <c r="HG8" s="12"/>
-      <c r="HH8" s="12"/>
-      <c r="HI8" s="12"/>
-      <c r="HJ8" s="12"/>
-      <c r="HK8" s="12"/>
-      <c r="HL8" s="12"/>
-      <c r="HM8" s="12"/>
-      <c r="HN8" s="12"/>
-      <c r="HO8" s="12"/>
-      <c r="HP8" s="12"/>
-      <c r="HQ8" s="12"/>
-      <c r="HR8" s="12"/>
-      <c r="HS8" s="12"/>
-      <c r="HT8" s="12"/>
-      <c r="HU8" s="12"/>
-      <c r="HV8" s="12"/>
-      <c r="HW8" s="12"/>
-      <c r="HX8" s="12"/>
-      <c r="HY8" s="12"/>
-      <c r="HZ8" s="12"/>
-      <c r="IA8" s="12"/>
-      <c r="IB8" s="12"/>
-      <c r="IC8" s="12"/>
-      <c r="ID8" s="12"/>
-      <c r="IE8" s="12"/>
-      <c r="IF8" s="12"/>
-      <c r="IG8" s="12"/>
-      <c r="IH8" s="12"/>
-      <c r="II8" s="12"/>
-      <c r="IJ8" s="12"/>
-      <c r="IK8" s="12"/>
-      <c r="IL8" s="12"/>
-      <c r="IM8" s="12"/>
-      <c r="IN8" s="12"/>
-      <c r="IO8" s="12"/>
-      <c r="IP8" s="12"/>
-      <c r="IQ8" s="12"/>
-      <c r="IR8" s="12"/>
-      <c r="IS8" s="12"/>
-      <c r="IT8" s="12"/>
-      <c r="IU8" s="12"/>
-      <c r="IV8" s="12"/>
-      <c r="IW8" s="12"/>
-      <c r="IX8" s="12"/>
-      <c r="IY8" s="12"/>
-      <c r="IZ8" s="12"/>
-      <c r="JA8" s="12"/>
-      <c r="JB8" s="12"/>
-      <c r="JC8" s="12"/>
-      <c r="JD8" s="12"/>
-      <c r="JE8" s="12"/>
-      <c r="JF8" s="12"/>
-      <c r="JG8" s="12"/>
-      <c r="JH8" s="12"/>
-      <c r="JI8" s="12"/>
-      <c r="JJ8" s="12"/>
-      <c r="JK8" s="12"/>
-      <c r="JL8" s="12"/>
-      <c r="JM8" s="12"/>
-      <c r="JN8" s="12"/>
-      <c r="JO8" s="12"/>
-      <c r="JP8" s="12"/>
-      <c r="JQ8" s="12"/>
-      <c r="JR8" s="12"/>
-      <c r="JS8" s="12"/>
-      <c r="JT8" s="12"/>
-      <c r="JU8" s="12"/>
-      <c r="JV8" s="12"/>
-      <c r="JW8" s="12"/>
-      <c r="JX8" s="12"/>
-      <c r="JY8" s="12"/>
-      <c r="JZ8" s="12"/>
-      <c r="KA8" s="12"/>
-      <c r="KB8" s="12"/>
-      <c r="KC8" s="12"/>
-      <c r="KD8" s="12"/>
-      <c r="KE8" s="12"/>
-      <c r="KF8" s="12"/>
-      <c r="KG8" s="12"/>
-      <c r="KH8" s="12"/>
-      <c r="KI8" s="12"/>
-      <c r="KJ8" s="12"/>
-      <c r="KK8" s="12"/>
-      <c r="KL8" s="12"/>
-      <c r="KM8" s="12"/>
-      <c r="KN8" s="12"/>
-      <c r="KO8" s="12"/>
-      <c r="KP8" s="12"/>
-      <c r="KQ8" s="12"/>
-      <c r="KR8" s="12"/>
-      <c r="KS8" s="12"/>
-      <c r="KT8" s="12"/>
-      <c r="KU8" s="12"/>
-      <c r="KV8" s="12"/>
-      <c r="KW8" s="12"/>
-      <c r="KX8" s="12"/>
-      <c r="KY8" s="12"/>
-      <c r="KZ8" s="12"/>
-      <c r="LA8" s="12"/>
-      <c r="LB8" s="12"/>
-      <c r="LC8" s="12"/>
-      <c r="LD8" s="12"/>
-      <c r="LE8" s="12"/>
-      <c r="LF8" s="12"/>
-      <c r="LG8" s="12"/>
-      <c r="LH8" s="12"/>
-      <c r="LI8" s="12"/>
-      <c r="LJ8" s="12"/>
-      <c r="LK8" s="12"/>
-      <c r="LL8" s="12"/>
-      <c r="LM8" s="12"/>
-      <c r="LN8" s="12"/>
-      <c r="LO8" s="12"/>
-      <c r="LP8" s="12"/>
-      <c r="LQ8" s="12"/>
-      <c r="LR8" s="12"/>
-      <c r="LS8" s="12"/>
-      <c r="LT8" s="12"/>
-      <c r="LU8" s="12"/>
-      <c r="LV8" s="12"/>
-      <c r="LW8" s="12"/>
-      <c r="LX8" s="12"/>
-      <c r="LY8" s="12"/>
-    </row>
-    <row r="9" spans="1:337">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:337">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:337">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:337">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:337">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:337">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:337">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:337">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="9"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="9"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="9"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="9"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="9"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="9"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="9"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="9"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="9"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="9"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="9"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="9"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="9"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="9"/>
+      <c r="A28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1816,7 +2229,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H25"/>
+      <selection activeCell="A2" sqref="A2:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1826,28 +2239,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
